--- a/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
+++ b/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ212"/>
+  <dimension ref="A1:AR212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,11 @@
           <t>03-14进入人数</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>03-15进入人数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -717,6 +722,9 @@
         <v>66</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -846,6 +854,9 @@
         <v>80</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -975,6 +986,9 @@
         <v>84</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1104,6 +1118,9 @@
         <v>85</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1233,6 +1250,9 @@
         <v>83</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1362,6 +1382,9 @@
         <v>80</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1491,6 +1514,9 @@
         <v>88</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1620,6 +1646,9 @@
         <v>97</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1749,6 +1778,9 @@
         <v>78</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1878,6 +1910,9 @@
         <v>103</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2007,6 +2042,9 @@
         <v>111</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2136,6 +2174,9 @@
         <v>81</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2265,6 +2306,9 @@
         <v>71</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2394,6 +2438,9 @@
         <v>165</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2523,6 +2570,9 @@
         <v>115</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2652,6 +2702,9 @@
         <v>103</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2781,6 +2834,9 @@
         <v>91</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2910,6 +2966,9 @@
         <v>519</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3039,6 +3098,9 @@
         <v>187</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3168,6 +3230,9 @@
         <v>110</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3299,6 +3364,9 @@
         <v>95</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3430,6 +3498,9 @@
         <v>91</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3561,6 +3632,9 @@
         <v>86</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3692,6 +3766,9 @@
         <v>75</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3823,6 +3900,9 @@
         <v>88</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3954,6 +4034,9 @@
         <v>77</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4085,6 +4168,9 @@
         <v>84</v>
       </c>
       <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4216,6 +4302,9 @@
         <v>89</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4347,6 +4436,9 @@
         <v>78</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4478,6 +4570,9 @@
         <v>72</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4609,6 +4704,9 @@
         <v>71</v>
       </c>
       <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4740,6 +4838,9 @@
         <v>65</v>
       </c>
       <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4871,6 +4972,9 @@
         <v>66</v>
       </c>
       <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5002,6 +5106,9 @@
         <v>64</v>
       </c>
       <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5133,6 +5240,9 @@
         <v>52</v>
       </c>
       <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5264,6 +5374,9 @@
         <v>61</v>
       </c>
       <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5395,6 +5508,9 @@
         <v>59</v>
       </c>
       <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5526,6 +5642,9 @@
         <v>49</v>
       </c>
       <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5657,6 +5776,9 @@
         <v>63</v>
       </c>
       <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5788,6 +5910,9 @@
         <v>60</v>
       </c>
       <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5919,6 +6044,9 @@
         <v>52</v>
       </c>
       <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6050,6 +6178,9 @@
         <v>60</v>
       </c>
       <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6181,6 +6312,9 @@
         <v>58</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6312,6 +6446,9 @@
         <v>51</v>
       </c>
       <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6443,6 +6580,9 @@
         <v>50</v>
       </c>
       <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6574,6 +6714,9 @@
         <v>44</v>
       </c>
       <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6705,6 +6848,9 @@
         <v>56</v>
       </c>
       <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6836,6 +6982,9 @@
         <v>56</v>
       </c>
       <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6967,6 +7116,9 @@
         <v>49</v>
       </c>
       <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7098,6 +7250,9 @@
         <v>42</v>
       </c>
       <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7229,6 +7384,9 @@
         <v>47</v>
       </c>
       <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7360,6 +7518,9 @@
         <v>34</v>
       </c>
       <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7491,6 +7652,9 @@
         <v>42</v>
       </c>
       <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7622,6 +7786,9 @@
         <v>37</v>
       </c>
       <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7753,6 +7920,9 @@
         <v>54</v>
       </c>
       <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7884,6 +8054,9 @@
         <v>43</v>
       </c>
       <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8015,6 +8188,9 @@
         <v>36</v>
       </c>
       <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8146,6 +8322,9 @@
         <v>38</v>
       </c>
       <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8277,6 +8456,9 @@
         <v>52</v>
       </c>
       <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8408,6 +8590,9 @@
         <v>49</v>
       </c>
       <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8539,6 +8724,9 @@
         <v>38</v>
       </c>
       <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8670,6 +8858,9 @@
         <v>32</v>
       </c>
       <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8801,6 +8992,9 @@
         <v>33</v>
       </c>
       <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8932,6 +9126,9 @@
         <v>31</v>
       </c>
       <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9063,6 +9260,9 @@
         <v>43</v>
       </c>
       <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9194,6 +9394,9 @@
         <v>39</v>
       </c>
       <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9325,6 +9528,9 @@
         <v>46</v>
       </c>
       <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9456,6 +9662,9 @@
         <v>48</v>
       </c>
       <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9587,6 +9796,9 @@
         <v>46</v>
       </c>
       <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9718,6 +9930,9 @@
         <v>35</v>
       </c>
       <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9849,6 +10064,9 @@
         <v>32</v>
       </c>
       <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9980,6 +10198,9 @@
         <v>39</v>
       </c>
       <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10111,6 +10332,9 @@
         <v>31</v>
       </c>
       <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10242,6 +10466,9 @@
         <v>41</v>
       </c>
       <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10373,6 +10600,9 @@
         <v>31</v>
       </c>
       <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10504,6 +10734,9 @@
         <v>50</v>
       </c>
       <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10635,6 +10868,9 @@
         <v>28</v>
       </c>
       <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10766,6 +11002,9 @@
         <v>25</v>
       </c>
       <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10897,6 +11136,9 @@
         <v>39</v>
       </c>
       <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11028,6 +11270,9 @@
         <v>27</v>
       </c>
       <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11159,6 +11404,9 @@
         <v>32</v>
       </c>
       <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11290,6 +11538,9 @@
         <v>26</v>
       </c>
       <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11421,6 +11672,9 @@
         <v>25</v>
       </c>
       <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11552,6 +11806,9 @@
         <v>39</v>
       </c>
       <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -11683,6 +11940,9 @@
         <v>26</v>
       </c>
       <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11814,6 +12074,9 @@
         <v>30</v>
       </c>
       <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11945,6 +12208,9 @@
         <v>32</v>
       </c>
       <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12076,6 +12342,9 @@
         <v>30</v>
       </c>
       <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12207,6 +12476,9 @@
         <v>33</v>
       </c>
       <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12338,6 +12610,9 @@
         <v>34</v>
       </c>
       <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -12469,6 +12744,9 @@
         <v>33</v>
       </c>
       <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12600,6 +12878,9 @@
         <v>42</v>
       </c>
       <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12731,6 +13012,9 @@
         <v>40</v>
       </c>
       <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -12862,6 +13146,9 @@
         <v>37</v>
       </c>
       <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12993,6 +13280,9 @@
         <v>32</v>
       </c>
       <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13124,6 +13414,9 @@
         <v>35</v>
       </c>
       <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13255,6 +13548,9 @@
         <v>38</v>
       </c>
       <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13386,6 +13682,9 @@
         <v>28</v>
       </c>
       <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13517,6 +13816,9 @@
         <v>27</v>
       </c>
       <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13648,6 +13950,9 @@
         <v>24</v>
       </c>
       <c r="AQ101" t="inlineStr"/>
+      <c r="AR101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13779,6 +14084,9 @@
         <v>26</v>
       </c>
       <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13910,6 +14218,9 @@
         <v>26</v>
       </c>
       <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14041,6 +14352,9 @@
         <v>26</v>
       </c>
       <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14172,6 +14486,9 @@
         <v>24</v>
       </c>
       <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -14303,6 +14620,9 @@
         <v>20</v>
       </c>
       <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -14434,6 +14754,9 @@
         <v>24</v>
       </c>
       <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -14565,6 +14888,9 @@
         <v>13</v>
       </c>
       <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14696,6 +15022,9 @@
         <v>20</v>
       </c>
       <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14827,6 +15156,9 @@
         <v>25</v>
       </c>
       <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14958,6 +15290,9 @@
         <v>27</v>
       </c>
       <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15089,6 +15424,9 @@
         <v>25</v>
       </c>
       <c r="AQ112" t="inlineStr"/>
+      <c r="AR112" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -15220,6 +15558,9 @@
         <v>24</v>
       </c>
       <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15351,6 +15692,9 @@
         <v>27</v>
       </c>
       <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15482,6 +15826,9 @@
         <v>35</v>
       </c>
       <c r="AQ115" t="inlineStr"/>
+      <c r="AR115" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15613,6 +15960,9 @@
         <v>24</v>
       </c>
       <c r="AQ116" t="inlineStr"/>
+      <c r="AR116" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15744,6 +16094,9 @@
         <v>24</v>
       </c>
       <c r="AQ117" t="inlineStr"/>
+      <c r="AR117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15875,6 +16228,9 @@
         <v>20</v>
       </c>
       <c r="AQ118" t="inlineStr"/>
+      <c r="AR118" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16006,6 +16362,9 @@
         <v>21</v>
       </c>
       <c r="AQ119" t="inlineStr"/>
+      <c r="AR119" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16137,6 +16496,9 @@
         <v>25</v>
       </c>
       <c r="AQ120" t="inlineStr"/>
+      <c r="AR120" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16268,6 +16630,9 @@
         <v>32</v>
       </c>
       <c r="AQ121" t="inlineStr"/>
+      <c r="AR121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16399,6 +16764,9 @@
         <v>32</v>
       </c>
       <c r="AQ122" t="inlineStr"/>
+      <c r="AR122" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16530,6 +16898,9 @@
         <v>42</v>
       </c>
       <c r="AQ123" t="inlineStr"/>
+      <c r="AR123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16661,6 +17032,9 @@
         <v>30</v>
       </c>
       <c r="AQ124" t="inlineStr"/>
+      <c r="AR124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16792,6 +17166,9 @@
         <v>23</v>
       </c>
       <c r="AQ125" t="inlineStr"/>
+      <c r="AR125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16919,6 +17296,9 @@
         <v>25</v>
       </c>
       <c r="AQ126" t="inlineStr"/>
+      <c r="AR126" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17044,6 +17424,9 @@
         <v>13</v>
       </c>
       <c r="AQ127" t="inlineStr"/>
+      <c r="AR127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -17171,6 +17554,9 @@
         <v>20</v>
       </c>
       <c r="AQ128" t="inlineStr"/>
+      <c r="AR128" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17298,6 +17684,9 @@
         <v>34</v>
       </c>
       <c r="AQ129" t="inlineStr"/>
+      <c r="AR129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -17425,6 +17814,9 @@
         <v>26</v>
       </c>
       <c r="AQ130" t="inlineStr"/>
+      <c r="AR130" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17552,6 +17944,9 @@
         <v>14</v>
       </c>
       <c r="AQ131" t="inlineStr"/>
+      <c r="AR131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17677,6 +18072,9 @@
         <v>14</v>
       </c>
       <c r="AQ132" t="inlineStr"/>
+      <c r="AR132" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17802,6 +18200,9 @@
         <v>11</v>
       </c>
       <c r="AQ133" t="inlineStr"/>
+      <c r="AR133" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17927,6 +18328,9 @@
         <v>8</v>
       </c>
       <c r="AQ134" t="inlineStr"/>
+      <c r="AR134" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -18052,6 +18456,9 @@
         <v>22</v>
       </c>
       <c r="AQ135" t="inlineStr"/>
+      <c r="AR135" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -18175,6 +18582,9 @@
         <v>11</v>
       </c>
       <c r="AQ136" t="inlineStr"/>
+      <c r="AR136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18296,6 +18706,9 @@
         <v>16</v>
       </c>
       <c r="AQ137" t="inlineStr"/>
+      <c r="AR137" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18415,6 +18828,9 @@
         <v>16</v>
       </c>
       <c r="AQ138" t="inlineStr"/>
+      <c r="AR138" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18534,6 +18950,9 @@
         <v>17</v>
       </c>
       <c r="AQ139" t="inlineStr"/>
+      <c r="AR139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -18653,6 +19072,9 @@
         <v>15</v>
       </c>
       <c r="AQ140" t="inlineStr"/>
+      <c r="AR140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -18768,6 +19190,9 @@
         <v>13</v>
       </c>
       <c r="AQ141" t="inlineStr"/>
+      <c r="AR141" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -18883,6 +19308,9 @@
         <v>14</v>
       </c>
       <c r="AQ142" t="inlineStr"/>
+      <c r="AR142" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -18998,6 +19426,9 @@
         <v>19</v>
       </c>
       <c r="AQ143" t="inlineStr"/>
+      <c r="AR143" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -19111,6 +19542,9 @@
         <v>20</v>
       </c>
       <c r="AQ144" t="inlineStr"/>
+      <c r="AR144" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -19224,6 +19658,9 @@
         <v>19</v>
       </c>
       <c r="AQ145" t="inlineStr"/>
+      <c r="AR145" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -19337,6 +19774,7 @@
         <v>16</v>
       </c>
       <c r="AQ146" t="inlineStr"/>
+      <c r="AR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -19448,6 +19886,7 @@
         <v>16</v>
       </c>
       <c r="AQ147" t="inlineStr"/>
+      <c r="AR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -19559,6 +19998,7 @@
         <v>11</v>
       </c>
       <c r="AQ148" t="inlineStr"/>
+      <c r="AR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -19670,6 +20110,7 @@
         <v>8</v>
       </c>
       <c r="AQ149" t="inlineStr"/>
+      <c r="AR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -19777,6 +20218,7 @@
         <v>13</v>
       </c>
       <c r="AQ150" t="inlineStr"/>
+      <c r="AR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -19880,6 +20322,7 @@
       </c>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
+      <c r="AR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -19981,6 +20424,7 @@
       </c>
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
+      <c r="AR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -20082,6 +20526,7 @@
       </c>
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
+      <c r="AR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -20183,6 +20628,7 @@
       </c>
       <c r="AP154" t="inlineStr"/>
       <c r="AQ154" t="inlineStr"/>
+      <c r="AR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -20284,6 +20730,7 @@
       </c>
       <c r="AP155" t="inlineStr"/>
       <c r="AQ155" t="inlineStr"/>
+      <c r="AR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -20383,6 +20830,7 @@
       </c>
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="inlineStr"/>
+      <c r="AR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -20482,6 +20930,7 @@
       </c>
       <c r="AP157" t="inlineStr"/>
       <c r="AQ157" t="inlineStr"/>
+      <c r="AR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -20581,6 +21030,7 @@
       </c>
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
+      <c r="AR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -20680,6 +21130,7 @@
       </c>
       <c r="AP159" t="inlineStr"/>
       <c r="AQ159" t="inlineStr"/>
+      <c r="AR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -20779,6 +21230,7 @@
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
+      <c r="AR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -20876,6 +21328,7 @@
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
+      <c r="AR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -20973,6 +21426,7 @@
       </c>
       <c r="AP162" t="inlineStr"/>
       <c r="AQ162" t="inlineStr"/>
+      <c r="AR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -21070,6 +21524,7 @@
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
+      <c r="AR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -21167,6 +21622,7 @@
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
+      <c r="AR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -21264,6 +21720,7 @@
       </c>
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
+      <c r="AR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -21361,6 +21818,7 @@
       </c>
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
+      <c r="AR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -21456,6 +21914,7 @@
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
+      <c r="AR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -21551,6 +22010,7 @@
       </c>
       <c r="AP168" t="inlineStr"/>
       <c r="AQ168" t="inlineStr"/>
+      <c r="AR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -21644,6 +22104,7 @@
       </c>
       <c r="AP169" t="inlineStr"/>
       <c r="AQ169" t="inlineStr"/>
+      <c r="AR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -21737,6 +22198,7 @@
       </c>
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
+      <c r="AR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21830,6 +22292,7 @@
       </c>
       <c r="AP171" t="inlineStr"/>
       <c r="AQ171" t="inlineStr"/>
+      <c r="AR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21917,6 +22380,7 @@
       </c>
       <c r="AP172" t="inlineStr"/>
       <c r="AQ172" t="inlineStr"/>
+      <c r="AR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -22004,6 +22468,7 @@
       </c>
       <c r="AP173" t="inlineStr"/>
       <c r="AQ173" t="inlineStr"/>
+      <c r="AR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -22093,6 +22558,7 @@
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>
+      <c r="AR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -22182,6 +22648,7 @@
       </c>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="inlineStr"/>
+      <c r="AR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -22271,6 +22738,7 @@
       </c>
       <c r="AP176" t="inlineStr"/>
       <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -22360,6 +22828,7 @@
       </c>
       <c r="AP177" t="inlineStr"/>
       <c r="AQ177" t="inlineStr"/>
+      <c r="AR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -22449,6 +22918,7 @@
       </c>
       <c r="AP178" t="inlineStr"/>
       <c r="AQ178" t="inlineStr"/>
+      <c r="AR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22538,6 +23008,7 @@
       </c>
       <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22625,6 +23096,7 @@
       </c>
       <c r="AP180" t="inlineStr"/>
       <c r="AQ180" t="inlineStr"/>
+      <c r="AR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -22712,6 +23184,7 @@
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>
+      <c r="AR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22799,6 +23272,7 @@
       </c>
       <c r="AP182" t="inlineStr"/>
       <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22886,6 +23360,7 @@
       </c>
       <c r="AP183" t="inlineStr"/>
       <c r="AQ183" t="inlineStr"/>
+      <c r="AR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22971,6 +23446,7 @@
       </c>
       <c r="AP184" t="inlineStr"/>
       <c r="AQ184" t="inlineStr"/>
+      <c r="AR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -23054,6 +23530,7 @@
       </c>
       <c r="AP185" t="inlineStr"/>
       <c r="AQ185" t="inlineStr"/>
+      <c r="AR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -23135,6 +23612,7 @@
       </c>
       <c r="AP186" t="inlineStr"/>
       <c r="AQ186" t="inlineStr"/>
+      <c r="AR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -23220,6 +23698,7 @@
       </c>
       <c r="AP187" t="inlineStr"/>
       <c r="AQ187" t="inlineStr"/>
+      <c r="AR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -23305,6 +23784,7 @@
       </c>
       <c r="AP188" t="inlineStr"/>
       <c r="AQ188" t="inlineStr"/>
+      <c r="AR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -23390,6 +23870,7 @@
       </c>
       <c r="AP189" t="inlineStr"/>
       <c r="AQ189" t="inlineStr"/>
+      <c r="AR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -23473,6 +23954,7 @@
       </c>
       <c r="AP190" t="inlineStr"/>
       <c r="AQ190" t="inlineStr"/>
+      <c r="AR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23558,6 +24040,7 @@
       </c>
       <c r="AP191" t="inlineStr"/>
       <c r="AQ191" t="inlineStr"/>
+      <c r="AR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23643,6 +24126,7 @@
       </c>
       <c r="AP192" t="inlineStr"/>
       <c r="AQ192" t="inlineStr"/>
+      <c r="AR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23728,6 +24212,7 @@
       </c>
       <c r="AP193" t="inlineStr"/>
       <c r="AQ193" t="inlineStr"/>
+      <c r="AR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23811,6 +24296,7 @@
       </c>
       <c r="AP194" t="inlineStr"/>
       <c r="AQ194" t="inlineStr"/>
+      <c r="AR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23892,6 +24378,7 @@
       </c>
       <c r="AP195" t="inlineStr"/>
       <c r="AQ195" t="inlineStr"/>
+      <c r="AR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23977,6 +24464,7 @@
       </c>
       <c r="AP196" t="inlineStr"/>
       <c r="AQ196" t="inlineStr"/>
+      <c r="AR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -24060,6 +24548,7 @@
       </c>
       <c r="AP197" t="inlineStr"/>
       <c r="AQ197" t="inlineStr"/>
+      <c r="AR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -24145,6 +24634,7 @@
       </c>
       <c r="AP198" t="inlineStr"/>
       <c r="AQ198" t="inlineStr"/>
+      <c r="AR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -24226,6 +24716,7 @@
       <c r="AO199" t="inlineStr"/>
       <c r="AP199" t="inlineStr"/>
       <c r="AQ199" t="inlineStr"/>
+      <c r="AR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -24309,6 +24800,7 @@
       </c>
       <c r="AP200" t="inlineStr"/>
       <c r="AQ200" t="inlineStr"/>
+      <c r="AR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24394,6 +24886,7 @@
       </c>
       <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr"/>
+      <c r="AR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24479,6 +24972,7 @@
       </c>
       <c r="AP202" t="inlineStr"/>
       <c r="AQ202" t="inlineStr"/>
+      <c r="AR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24562,6 +25056,7 @@
       </c>
       <c r="AP203" t="inlineStr"/>
       <c r="AQ203" t="inlineStr"/>
+      <c r="AR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24645,6 +25140,7 @@
       </c>
       <c r="AP204" t="inlineStr"/>
       <c r="AQ204" t="inlineStr"/>
+      <c r="AR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24726,6 +25222,7 @@
       <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="inlineStr"/>
       <c r="AQ205" t="inlineStr"/>
+      <c r="AR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24809,6 +25306,7 @@
       </c>
       <c r="AP206" t="inlineStr"/>
       <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24882,6 +25380,7 @@
       <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="inlineStr"/>
       <c r="AQ207" t="inlineStr"/>
+      <c r="AR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24961,6 +25460,7 @@
       <c r="AO208" t="inlineStr"/>
       <c r="AP208" t="inlineStr"/>
       <c r="AQ208" t="inlineStr"/>
+      <c r="AR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -25040,6 +25540,7 @@
       </c>
       <c r="AP209" t="inlineStr"/>
       <c r="AQ209" t="inlineStr"/>
+      <c r="AR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -25111,6 +25612,7 @@
       <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="inlineStr"/>
       <c r="AQ210" t="inlineStr"/>
+      <c r="AR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25186,6 +25688,7 @@
       <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="inlineStr"/>
       <c r="AQ211" t="inlineStr"/>
+      <c r="AR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25261,6 +25764,7 @@
       <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="inlineStr"/>
       <c r="AQ212" t="inlineStr"/>
+      <c r="AR212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25273,7 +25777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ212"/>
+  <dimension ref="A1:AR212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25497,6 +26001,11 @@
           <t>03-14离开人数</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>03-15离开人数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -25626,6 +26135,9 @@
         <v>18</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -25755,6 +26267,9 @@
         <v>40</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -25884,6 +26399,9 @@
         <v>49</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -26013,6 +26531,9 @@
         <v>36</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -26142,6 +26663,9 @@
         <v>36</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -26271,6 +26795,9 @@
         <v>46</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -26400,6 +26927,9 @@
         <v>44</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -26529,6 +27059,9 @@
         <v>58</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -26658,6 +27191,9 @@
         <v>47</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -26787,6 +27323,9 @@
         <v>48</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -26916,6 +27455,9 @@
         <v>61</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -27045,6 +27587,9 @@
         <v>66</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -27174,6 +27719,9 @@
         <v>41</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -27303,6 +27851,9 @@
         <v>60</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -27432,6 +27983,9 @@
         <v>82</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -27561,6 +28115,9 @@
         <v>72</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -27690,6 +28247,9 @@
         <v>70</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -27819,6 +28379,9 @@
         <v>108</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -27948,6 +28511,9 @@
         <v>172</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28077,6 +28643,9 @@
         <v>103</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -28208,6 +28777,9 @@
         <v>94</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -28339,6 +28911,9 @@
         <v>84</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -28470,6 +29045,9 @@
         <v>89</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -28601,6 +29179,9 @@
         <v>61</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -28732,6 +29313,9 @@
         <v>76</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -28863,6 +29447,9 @@
         <v>64</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -28994,6 +29581,9 @@
         <v>72</v>
       </c>
       <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -29125,6 +29715,9 @@
         <v>82</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -29256,6 +29849,9 @@
         <v>69</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -29387,6 +29983,9 @@
         <v>57</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -29518,6 +30117,9 @@
         <v>65</v>
       </c>
       <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -29649,6 +30251,9 @@
         <v>54</v>
       </c>
       <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -29780,6 +30385,9 @@
         <v>59</v>
       </c>
       <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29911,6 +30519,9 @@
         <v>69</v>
       </c>
       <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30042,6 +30653,9 @@
         <v>48</v>
       </c>
       <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30173,6 +30787,9 @@
         <v>62</v>
       </c>
       <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30304,6 +30921,9 @@
         <v>50</v>
       </c>
       <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -30435,6 +31055,9 @@
         <v>53</v>
       </c>
       <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30566,6 +31189,9 @@
         <v>61</v>
       </c>
       <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30697,6 +31323,9 @@
         <v>59</v>
       </c>
       <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30828,6 +31457,9 @@
         <v>44</v>
       </c>
       <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30959,6 +31591,9 @@
         <v>65</v>
       </c>
       <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31090,6 +31725,9 @@
         <v>47</v>
       </c>
       <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31221,6 +31859,9 @@
         <v>59</v>
       </c>
       <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31352,6 +31993,9 @@
         <v>52</v>
       </c>
       <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -31483,6 +32127,9 @@
         <v>48</v>
       </c>
       <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -31614,6 +32261,9 @@
         <v>59</v>
       </c>
       <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -31745,6 +32395,9 @@
         <v>54</v>
       </c>
       <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -31876,6 +32529,9 @@
         <v>51</v>
       </c>
       <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -32007,6 +32663,9 @@
         <v>53</v>
       </c>
       <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -32138,6 +32797,9 @@
         <v>42</v>
       </c>
       <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -32269,6 +32931,9 @@
         <v>33</v>
       </c>
       <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -32400,6 +33065,9 @@
         <v>44</v>
       </c>
       <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -32531,6 +33199,9 @@
         <v>52</v>
       </c>
       <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -32662,6 +33333,9 @@
         <v>50</v>
       </c>
       <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -32793,6 +33467,9 @@
         <v>56</v>
       </c>
       <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -32924,6 +33601,9 @@
         <v>46</v>
       </c>
       <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -33055,6 +33735,9 @@
         <v>45</v>
       </c>
       <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -33186,6 +33869,9 @@
         <v>43</v>
       </c>
       <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -33317,6 +34003,9 @@
         <v>39</v>
       </c>
       <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -33448,6 +34137,9 @@
         <v>44</v>
       </c>
       <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -33579,6 +34271,9 @@
         <v>50</v>
       </c>
       <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -33710,6 +34405,9 @@
         <v>28</v>
       </c>
       <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -33841,6 +34539,9 @@
         <v>36</v>
       </c>
       <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -33972,6 +34673,9 @@
         <v>52</v>
       </c>
       <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -34103,6 +34807,9 @@
         <v>48</v>
       </c>
       <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -34234,6 +34941,9 @@
         <v>77</v>
       </c>
       <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -34365,6 +35075,9 @@
         <v>64</v>
       </c>
       <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -34496,6 +35209,9 @@
         <v>42</v>
       </c>
       <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -34627,6 +35343,9 @@
         <v>53</v>
       </c>
       <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -34758,6 +35477,9 @@
         <v>38</v>
       </c>
       <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -34889,6 +35611,9 @@
         <v>48</v>
       </c>
       <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -35020,6 +35745,9 @@
         <v>28</v>
       </c>
       <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -35151,6 +35879,9 @@
         <v>47</v>
       </c>
       <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -35282,6 +36013,9 @@
         <v>42</v>
       </c>
       <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -35413,6 +36147,9 @@
         <v>43</v>
       </c>
       <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -35544,6 +36281,9 @@
         <v>41</v>
       </c>
       <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -35675,6 +36415,9 @@
         <v>26</v>
       </c>
       <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -35806,6 +36549,9 @@
         <v>42</v>
       </c>
       <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -35937,6 +36683,9 @@
         <v>35</v>
       </c>
       <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -36068,6 +36817,9 @@
         <v>49</v>
       </c>
       <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -36199,6 +36951,9 @@
         <v>37</v>
       </c>
       <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -36330,6 +37085,9 @@
         <v>24</v>
       </c>
       <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -36461,6 +37219,9 @@
         <v>31</v>
       </c>
       <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -36592,6 +37353,9 @@
         <v>40</v>
       </c>
       <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -36723,6 +37487,9 @@
         <v>43</v>
       </c>
       <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -36854,6 +37621,9 @@
         <v>47</v>
       </c>
       <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -36985,6 +37755,9 @@
         <v>33</v>
       </c>
       <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -37116,6 +37889,9 @@
         <v>37</v>
       </c>
       <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -37247,6 +38023,9 @@
         <v>42</v>
       </c>
       <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -37378,6 +38157,9 @@
         <v>152</v>
       </c>
       <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -37509,6 +38291,9 @@
         <v>24</v>
       </c>
       <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -37640,6 +38425,9 @@
         <v>30</v>
       </c>
       <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -37771,6 +38559,9 @@
         <v>41</v>
       </c>
       <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -37902,6 +38693,9 @@
         <v>40</v>
       </c>
       <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -38033,6 +38827,9 @@
         <v>42</v>
       </c>
       <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -38164,6 +38961,9 @@
         <v>42</v>
       </c>
       <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -38295,6 +39095,9 @@
         <v>40</v>
       </c>
       <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -38426,6 +39229,9 @@
         <v>28</v>
       </c>
       <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -38557,6 +39363,9 @@
         <v>24</v>
       </c>
       <c r="AQ101" t="inlineStr"/>
+      <c r="AR101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -38688,6 +39497,9 @@
         <v>27</v>
       </c>
       <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -38819,6 +39631,9 @@
         <v>35</v>
       </c>
       <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -38950,6 +39765,9 @@
         <v>29</v>
       </c>
       <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -39081,6 +39899,9 @@
         <v>68</v>
       </c>
       <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -39212,6 +40033,9 @@
         <v>31</v>
       </c>
       <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -39343,6 +40167,9 @@
         <v>29</v>
       </c>
       <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -39474,6 +40301,9 @@
         <v>22</v>
       </c>
       <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -39605,6 +40435,9 @@
         <v>23</v>
       </c>
       <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -39736,6 +40569,9 @@
         <v>40</v>
       </c>
       <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -39867,6 +40703,9 @@
         <v>36</v>
       </c>
       <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -39998,6 +40837,9 @@
         <v>23</v>
       </c>
       <c r="AQ112" t="inlineStr"/>
+      <c r="AR112" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -40129,6 +40971,9 @@
         <v>28</v>
       </c>
       <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -40260,6 +41105,9 @@
         <v>36</v>
       </c>
       <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -40391,6 +41239,9 @@
         <v>40</v>
       </c>
       <c r="AQ115" t="inlineStr"/>
+      <c r="AR115" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -40522,6 +41373,9 @@
         <v>26</v>
       </c>
       <c r="AQ116" t="inlineStr"/>
+      <c r="AR116" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -40653,6 +41507,9 @@
         <v>36</v>
       </c>
       <c r="AQ117" t="inlineStr"/>
+      <c r="AR117" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -40784,6 +41641,9 @@
         <v>29</v>
       </c>
       <c r="AQ118" t="inlineStr"/>
+      <c r="AR118" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -40915,6 +41775,9 @@
         <v>30</v>
       </c>
       <c r="AQ119" t="inlineStr"/>
+      <c r="AR119" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -41046,6 +41909,9 @@
         <v>34</v>
       </c>
       <c r="AQ120" t="inlineStr"/>
+      <c r="AR120" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -41177,6 +42043,9 @@
         <v>37</v>
       </c>
       <c r="AQ121" t="inlineStr"/>
+      <c r="AR121" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -41308,6 +42177,9 @@
         <v>59</v>
       </c>
       <c r="AQ122" t="inlineStr"/>
+      <c r="AR122" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -41439,6 +42311,9 @@
         <v>73</v>
       </c>
       <c r="AQ123" t="inlineStr"/>
+      <c r="AR123" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -41570,6 +42445,9 @@
         <v>43</v>
       </c>
       <c r="AQ124" t="inlineStr"/>
+      <c r="AR124" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -41701,6 +42579,9 @@
         <v>49</v>
       </c>
       <c r="AQ125" t="inlineStr"/>
+      <c r="AR125" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -41828,6 +42709,9 @@
         <v>20</v>
       </c>
       <c r="AQ126" t="inlineStr"/>
+      <c r="AR126" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -41955,6 +42839,9 @@
         <v>25</v>
       </c>
       <c r="AQ127" t="inlineStr"/>
+      <c r="AR127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -42082,6 +42969,9 @@
         <v>30</v>
       </c>
       <c r="AQ128" t="inlineStr"/>
+      <c r="AR128" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -42209,6 +43099,9 @@
         <v>80</v>
       </c>
       <c r="AQ129" t="inlineStr"/>
+      <c r="AR129" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -42336,6 +43229,9 @@
         <v>108</v>
       </c>
       <c r="AQ130" t="inlineStr"/>
+      <c r="AR130" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -42463,6 +43359,9 @@
         <v>12</v>
       </c>
       <c r="AQ131" t="inlineStr"/>
+      <c r="AR131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -42588,6 +43487,9 @@
         <v>18</v>
       </c>
       <c r="AQ132" t="inlineStr"/>
+      <c r="AR132" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -42713,6 +43615,9 @@
         <v>33</v>
       </c>
       <c r="AQ133" t="inlineStr"/>
+      <c r="AR133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -42838,6 +43743,9 @@
         <v>15</v>
       </c>
       <c r="AQ134" t="inlineStr"/>
+      <c r="AR134" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -42963,6 +43871,9 @@
         <v>26</v>
       </c>
       <c r="AQ135" t="inlineStr"/>
+      <c r="AR135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -43086,6 +43997,9 @@
         <v>6</v>
       </c>
       <c r="AQ136" t="inlineStr"/>
+      <c r="AR136" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -43207,6 +44121,9 @@
         <v>15</v>
       </c>
       <c r="AQ137" t="inlineStr"/>
+      <c r="AR137" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -43328,6 +44245,9 @@
         <v>16</v>
       </c>
       <c r="AQ138" t="inlineStr"/>
+      <c r="AR138" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -43447,6 +44367,9 @@
         <v>80</v>
       </c>
       <c r="AQ139" t="inlineStr"/>
+      <c r="AR139" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -43566,6 +44489,9 @@
         <v>20</v>
       </c>
       <c r="AQ140" t="inlineStr"/>
+      <c r="AR140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -43681,6 +44607,9 @@
         <v>27</v>
       </c>
       <c r="AQ141" t="inlineStr"/>
+      <c r="AR141" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -43796,6 +44725,9 @@
         <v>23</v>
       </c>
       <c r="AQ142" t="inlineStr"/>
+      <c r="AR142" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -43911,6 +44843,9 @@
         <v>97</v>
       </c>
       <c r="AQ143" t="inlineStr"/>
+      <c r="AR143" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -44024,6 +44959,9 @@
         <v>65</v>
       </c>
       <c r="AQ144" t="inlineStr"/>
+      <c r="AR144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -44137,6 +45075,9 @@
         <v>30</v>
       </c>
       <c r="AQ145" t="inlineStr"/>
+      <c r="AR145" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -44250,6 +45191,9 @@
         <v>28</v>
       </c>
       <c r="AQ146" t="inlineStr"/>
+      <c r="AR146" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -44361,6 +45305,9 @@
         <v>19</v>
       </c>
       <c r="AQ147" t="inlineStr"/>
+      <c r="AR147" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -44472,6 +45419,9 @@
         <v>16</v>
       </c>
       <c r="AQ148" t="inlineStr"/>
+      <c r="AR148" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -44583,6 +45533,9 @@
         <v>26</v>
       </c>
       <c r="AQ149" t="inlineStr"/>
+      <c r="AR149" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -44694,6 +45647,9 @@
         <v>333</v>
       </c>
       <c r="AQ150" t="inlineStr"/>
+      <c r="AR150" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -44799,6 +45755,9 @@
       </c>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
+      <c r="AR151" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -44902,6 +45861,7 @@
       </c>
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
+      <c r="AR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -45003,6 +45963,9 @@
       </c>
       <c r="AP153" t="inlineStr"/>
       <c r="AQ153" t="inlineStr"/>
+      <c r="AR153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -45104,6 +46067,9 @@
       </c>
       <c r="AP154" t="inlineStr"/>
       <c r="AQ154" t="inlineStr"/>
+      <c r="AR154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -45205,6 +46171,9 @@
       </c>
       <c r="AP155" t="inlineStr"/>
       <c r="AQ155" t="inlineStr"/>
+      <c r="AR155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -45308,6 +46277,7 @@
       </c>
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="inlineStr"/>
+      <c r="AR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -45409,6 +46379,7 @@
       </c>
       <c r="AP157" t="inlineStr"/>
       <c r="AQ157" t="inlineStr"/>
+      <c r="AR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -45508,6 +46479,7 @@
       </c>
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
+      <c r="AR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -45607,6 +46579,7 @@
       </c>
       <c r="AP159" t="inlineStr"/>
       <c r="AQ159" t="inlineStr"/>
+      <c r="AR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -45706,6 +46679,7 @@
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
+      <c r="AR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -45803,6 +46777,7 @@
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
+      <c r="AR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -45900,6 +46875,7 @@
       </c>
       <c r="AP162" t="inlineStr"/>
       <c r="AQ162" t="inlineStr"/>
+      <c r="AR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -45997,6 +46973,7 @@
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
+      <c r="AR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -46094,6 +47071,7 @@
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
+      <c r="AR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -46191,6 +47169,7 @@
       </c>
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
+      <c r="AR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -46288,6 +47267,7 @@
       </c>
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
+      <c r="AR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -46385,6 +47365,7 @@
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
+      <c r="AR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -46480,6 +47461,7 @@
       </c>
       <c r="AP168" t="inlineStr"/>
       <c r="AQ168" t="inlineStr"/>
+      <c r="AR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -46571,6 +47553,7 @@
       </c>
       <c r="AP169" t="inlineStr"/>
       <c r="AQ169" t="inlineStr"/>
+      <c r="AR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -46664,6 +47647,7 @@
       </c>
       <c r="AP170" t="inlineStr"/>
       <c r="AQ170" t="inlineStr"/>
+      <c r="AR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -46757,6 +47741,7 @@
       </c>
       <c r="AP171" t="inlineStr"/>
       <c r="AQ171" t="inlineStr"/>
+      <c r="AR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -46848,6 +47833,7 @@
       </c>
       <c r="AP172" t="inlineStr"/>
       <c r="AQ172" t="inlineStr"/>
+      <c r="AR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -46935,6 +47921,7 @@
       </c>
       <c r="AP173" t="inlineStr"/>
       <c r="AQ173" t="inlineStr"/>
+      <c r="AR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -47024,6 +48011,7 @@
       </c>
       <c r="AP174" t="inlineStr"/>
       <c r="AQ174" t="inlineStr"/>
+      <c r="AR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -47113,6 +48101,7 @@
       </c>
       <c r="AP175" t="inlineStr"/>
       <c r="AQ175" t="inlineStr"/>
+      <c r="AR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -47200,6 +48189,7 @@
       </c>
       <c r="AP176" t="inlineStr"/>
       <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -47289,6 +48279,7 @@
       </c>
       <c r="AP177" t="inlineStr"/>
       <c r="AQ177" t="inlineStr"/>
+      <c r="AR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -47378,6 +48369,7 @@
       </c>
       <c r="AP178" t="inlineStr"/>
       <c r="AQ178" t="inlineStr"/>
+      <c r="AR178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -47467,6 +48459,7 @@
       </c>
       <c r="AP179" t="inlineStr"/>
       <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -47554,6 +48547,7 @@
       </c>
       <c r="AP180" t="inlineStr"/>
       <c r="AQ180" t="inlineStr"/>
+      <c r="AR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -47641,6 +48635,7 @@
       </c>
       <c r="AP181" t="inlineStr"/>
       <c r="AQ181" t="inlineStr"/>
+      <c r="AR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -47726,6 +48721,7 @@
       </c>
       <c r="AP182" t="inlineStr"/>
       <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -47813,6 +48809,7 @@
       </c>
       <c r="AP183" t="inlineStr"/>
       <c r="AQ183" t="inlineStr"/>
+      <c r="AR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -47900,6 +48897,7 @@
       </c>
       <c r="AP184" t="inlineStr"/>
       <c r="AQ184" t="inlineStr"/>
+      <c r="AR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -47985,6 +48983,7 @@
       </c>
       <c r="AP185" t="inlineStr"/>
       <c r="AQ185" t="inlineStr"/>
+      <c r="AR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -48070,6 +49069,7 @@
       </c>
       <c r="AP186" t="inlineStr"/>
       <c r="AQ186" t="inlineStr"/>
+      <c r="AR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -48153,6 +49153,7 @@
       <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr"/>
       <c r="AQ187" t="inlineStr"/>
+      <c r="AR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -48238,6 +49239,7 @@
       </c>
       <c r="AP188" t="inlineStr"/>
       <c r="AQ188" t="inlineStr"/>
+      <c r="AR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -48323,6 +49325,7 @@
       </c>
       <c r="AP189" t="inlineStr"/>
       <c r="AQ189" t="inlineStr"/>
+      <c r="AR189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -48406,6 +49409,7 @@
       </c>
       <c r="AP190" t="inlineStr"/>
       <c r="AQ190" t="inlineStr"/>
+      <c r="AR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -48491,6 +49495,7 @@
       </c>
       <c r="AP191" t="inlineStr"/>
       <c r="AQ191" t="inlineStr"/>
+      <c r="AR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -48574,6 +49579,7 @@
       </c>
       <c r="AP192" t="inlineStr"/>
       <c r="AQ192" t="inlineStr"/>
+      <c r="AR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -48659,6 +49665,7 @@
       </c>
       <c r="AP193" t="inlineStr"/>
       <c r="AQ193" t="inlineStr"/>
+      <c r="AR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -48742,6 +49749,7 @@
       </c>
       <c r="AP194" t="inlineStr"/>
       <c r="AQ194" t="inlineStr"/>
+      <c r="AR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -48825,6 +49833,7 @@
       </c>
       <c r="AP195" t="inlineStr"/>
       <c r="AQ195" t="inlineStr"/>
+      <c r="AR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -48908,6 +49917,7 @@
       </c>
       <c r="AP196" t="inlineStr"/>
       <c r="AQ196" t="inlineStr"/>
+      <c r="AR196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -48993,6 +50003,7 @@
       </c>
       <c r="AP197" t="inlineStr"/>
       <c r="AQ197" t="inlineStr"/>
+      <c r="AR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -49078,6 +50089,7 @@
       </c>
       <c r="AP198" t="inlineStr"/>
       <c r="AQ198" t="inlineStr"/>
+      <c r="AR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -49161,6 +50173,7 @@
       <c r="AO199" t="inlineStr"/>
       <c r="AP199" t="inlineStr"/>
       <c r="AQ199" t="inlineStr"/>
+      <c r="AR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -49240,6 +50253,7 @@
       <c r="AO200" t="inlineStr"/>
       <c r="AP200" t="inlineStr"/>
       <c r="AQ200" t="inlineStr"/>
+      <c r="AR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -49325,6 +50339,7 @@
       </c>
       <c r="AP201" t="inlineStr"/>
       <c r="AQ201" t="inlineStr"/>
+      <c r="AR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -49408,6 +50423,7 @@
       <c r="AO202" t="inlineStr"/>
       <c r="AP202" t="inlineStr"/>
       <c r="AQ202" t="inlineStr"/>
+      <c r="AR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -49489,6 +50505,7 @@
       </c>
       <c r="AP203" t="inlineStr"/>
       <c r="AQ203" t="inlineStr"/>
+      <c r="AR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -49570,6 +50587,7 @@
       <c r="AO204" t="inlineStr"/>
       <c r="AP204" t="inlineStr"/>
       <c r="AQ204" t="inlineStr"/>
+      <c r="AR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -49651,6 +50669,7 @@
       </c>
       <c r="AP205" t="inlineStr"/>
       <c r="AQ205" t="inlineStr"/>
+      <c r="AR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -49734,6 +50753,7 @@
       </c>
       <c r="AP206" t="inlineStr"/>
       <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -49809,6 +50829,7 @@
       <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="inlineStr"/>
       <c r="AQ207" t="inlineStr"/>
+      <c r="AR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -49886,6 +50907,7 @@
       <c r="AO208" t="inlineStr"/>
       <c r="AP208" t="inlineStr"/>
       <c r="AQ208" t="inlineStr"/>
+      <c r="AR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -49961,6 +50983,7 @@
       <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="inlineStr"/>
       <c r="AQ209" t="inlineStr"/>
+      <c r="AR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -50036,6 +51059,7 @@
       <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="inlineStr"/>
       <c r="AQ210" t="inlineStr"/>
+      <c r="AR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -50109,6 +51133,7 @@
       <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="inlineStr"/>
       <c r="AQ211" t="inlineStr"/>
+      <c r="AR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -50182,6 +51207,7 @@
       <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="inlineStr"/>
       <c r="AQ212" t="inlineStr"/>
+      <c r="AR212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -50194,7 +51220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51154,6 +52180,29 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>43905</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>新基建兴起，制造业如何抓住信息化转型机会，借势腾飞？</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>181</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>03-15 21:27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>03-16 00:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
+++ b/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
@@ -47328,7 +47328,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48055,6 +48055,11 @@
         <v>43906</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43907</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
+++ b/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
@@ -47328,7 +47328,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48060,6 +48060,16 @@
         <v>43907</v>
       </c>
     </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>43909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
+++ b/多人讨论-区分付费/多人讨论分钟跳失/分钟数据汇总.xlsx
@@ -47328,7 +47328,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48085,6 +48085,16 @@
         <v>43912</v>
       </c>
     </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>43913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>43914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
